--- a/data/pca/factorExposure/factorExposure_2012-12-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-18.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>3.441277951796349e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001835480054578121</v>
+      </c>
+      <c r="C2">
+        <v>-0.03144282943520367</v>
+      </c>
+      <c r="D2">
+        <v>0.004835083536230922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005121799848832243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00639438832335179</v>
+      </c>
+      <c r="C4">
+        <v>-0.0839471427652152</v>
+      </c>
+      <c r="D4">
+        <v>0.07763666104428586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005350685622840466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01442338012309602</v>
+      </c>
+      <c r="C6">
+        <v>-0.1138104962737281</v>
+      </c>
+      <c r="D6">
+        <v>0.03300577097625473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001562556103082393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005181709905060459</v>
+      </c>
+      <c r="C7">
+        <v>-0.05845338524703583</v>
+      </c>
+      <c r="D7">
+        <v>0.03079163562681845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0009128501703476886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005882591932156421</v>
+      </c>
+      <c r="C8">
+        <v>-0.03771358512633844</v>
+      </c>
+      <c r="D8">
+        <v>0.0402812233164296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003327583135231843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004575936131981007</v>
+      </c>
+      <c r="C9">
+        <v>-0.07042533502836448</v>
+      </c>
+      <c r="D9">
+        <v>0.07272336816938518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.00330218741042953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005431534511015789</v>
+      </c>
+      <c r="C10">
+        <v>-0.05858916997386579</v>
+      </c>
+      <c r="D10">
+        <v>-0.1974094635937065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002313506508841468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005869312081490764</v>
+      </c>
+      <c r="C11">
+        <v>-0.07966971749731937</v>
+      </c>
+      <c r="D11">
+        <v>0.05938914401113612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006986920603362294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004186357534025892</v>
+      </c>
+      <c r="C12">
+        <v>-0.06406461294291999</v>
+      </c>
+      <c r="D12">
+        <v>0.04571233806007702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002105447686965097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009135624947008297</v>
+      </c>
+      <c r="C13">
+        <v>-0.06886298794090888</v>
+      </c>
+      <c r="D13">
+        <v>0.0574191629314813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0007841858668891034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001649378456991789</v>
+      </c>
+      <c r="C14">
+        <v>-0.04543839329276053</v>
+      </c>
+      <c r="D14">
+        <v>0.003646116673050326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006681585468656986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006116512199333883</v>
+      </c>
+      <c r="C15">
+        <v>-0.04207786955555224</v>
+      </c>
+      <c r="D15">
+        <v>0.0291545660379685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005309125090911301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005161345643253064</v>
+      </c>
+      <c r="C16">
+        <v>-0.06496214633638221</v>
+      </c>
+      <c r="D16">
+        <v>0.04876105507686489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005382768480252759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009101912489256526</v>
+      </c>
+      <c r="C20">
+        <v>-0.06552624997170953</v>
+      </c>
+      <c r="D20">
+        <v>0.04224798566665282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005799793466226108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01004092222775098</v>
+      </c>
+      <c r="C21">
+        <v>-0.02093553207147274</v>
+      </c>
+      <c r="D21">
+        <v>0.03783792933210964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01578160916517685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006537355923053705</v>
+      </c>
+      <c r="C22">
+        <v>-0.0939612942540102</v>
+      </c>
+      <c r="D22">
+        <v>0.1103127792519962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01607938193865696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006353012902128609</v>
+      </c>
+      <c r="C23">
+        <v>-0.09477534861390884</v>
+      </c>
+      <c r="D23">
+        <v>0.1103362452467571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001172608591513834</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005625875765859034</v>
+      </c>
+      <c r="C24">
+        <v>-0.07632332515518804</v>
+      </c>
+      <c r="D24">
+        <v>0.0630375379583652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003857309785617542</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003148775854461966</v>
+      </c>
+      <c r="C25">
+        <v>-0.07843062161590456</v>
+      </c>
+      <c r="D25">
+        <v>0.065349152572082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004402090213647572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003735494468331287</v>
+      </c>
+      <c r="C26">
+        <v>-0.04122089488436981</v>
+      </c>
+      <c r="D26">
+        <v>0.02275077067336581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.003657167174787101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000783691434353399</v>
+      </c>
+      <c r="C28">
+        <v>-0.1070745060283776</v>
+      </c>
+      <c r="D28">
+        <v>-0.3183564261397572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00121405312848349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.00348127825314687</v>
+      </c>
+      <c r="C29">
+        <v>-0.05125797538248769</v>
+      </c>
+      <c r="D29">
+        <v>0.006692039041972494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002525783382308884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009791422067156006</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417631411229128</v>
+      </c>
+      <c r="D30">
+        <v>0.1016595986154646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.001146705854851941</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006316786699038545</v>
+      </c>
+      <c r="C31">
+        <v>-0.04446632869572525</v>
+      </c>
+      <c r="D31">
+        <v>0.02891442816652539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.00100987045600266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004194273698873611</v>
+      </c>
+      <c r="C32">
+        <v>-0.03973097011267844</v>
+      </c>
+      <c r="D32">
+        <v>0.01961220870621084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002266217217218785</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008638383888512612</v>
+      </c>
+      <c r="C33">
+        <v>-0.08643704093707265</v>
+      </c>
+      <c r="D33">
+        <v>0.06392961950374251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004243999522436185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004076174200921852</v>
+      </c>
+      <c r="C34">
+        <v>-0.05793994577333166</v>
+      </c>
+      <c r="D34">
+        <v>0.05297976309396842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001142411175890805</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005059682996873161</v>
+      </c>
+      <c r="C35">
+        <v>-0.04024428154220194</v>
+      </c>
+      <c r="D35">
+        <v>0.01742706374141801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003648106213716607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001066545604694212</v>
+      </c>
+      <c r="C36">
+        <v>-0.02466173075062536</v>
+      </c>
+      <c r="D36">
+        <v>0.02187822217212589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00241760023110946</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009500427613269351</v>
+      </c>
+      <c r="C38">
+        <v>-0.03409350759938762</v>
+      </c>
+      <c r="D38">
+        <v>0.01561556471213044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01099182516322322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003507451446065104</v>
+      </c>
+      <c r="C39">
+        <v>-0.1154925812316344</v>
+      </c>
+      <c r="D39">
+        <v>0.07331586935907887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009235474665215723</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002858967851876907</v>
+      </c>
+      <c r="C40">
+        <v>-0.09030058084274724</v>
+      </c>
+      <c r="D40">
+        <v>0.01300451817470777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-8.481644260020061e-06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007366194655287896</v>
+      </c>
+      <c r="C41">
+        <v>-0.03824104801285413</v>
+      </c>
+      <c r="D41">
+        <v>0.03664735854161578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002920055985230104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004183055861230383</v>
+      </c>
+      <c r="C43">
+        <v>-0.053588916462452</v>
+      </c>
+      <c r="D43">
+        <v>0.02462356423741063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004180826473792712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00355409007158068</v>
+      </c>
+      <c r="C44">
+        <v>-0.1094773885687273</v>
+      </c>
+      <c r="D44">
+        <v>0.06578825508677603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001029910276722871</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00231825621029054</v>
+      </c>
+      <c r="C46">
+        <v>-0.0332488664593243</v>
+      </c>
+      <c r="D46">
+        <v>0.03481622623686562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001286626944165552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002832726679520655</v>
+      </c>
+      <c r="C47">
+        <v>-0.0377085298815977</v>
+      </c>
+      <c r="D47">
+        <v>0.02256837900355181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003873777308355166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006754517378002845</v>
+      </c>
+      <c r="C48">
+        <v>-0.03105287919858398</v>
+      </c>
+      <c r="D48">
+        <v>0.03261747015659935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0108758065283175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01584300272481122</v>
+      </c>
+      <c r="C49">
+        <v>-0.1851028903433216</v>
+      </c>
+      <c r="D49">
+        <v>0.0155180019558735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001536104513438645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003733060397670051</v>
+      </c>
+      <c r="C50">
+        <v>-0.04357186205114679</v>
+      </c>
+      <c r="D50">
+        <v>0.03530728173070758</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0009099211433420542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004492239480765106</v>
+      </c>
+      <c r="C51">
+        <v>-0.02602677760037897</v>
+      </c>
+      <c r="D51">
+        <v>0.01908825575287198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.00178856884952684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02132398175413757</v>
+      </c>
+      <c r="C53">
+        <v>-0.1699136035641514</v>
+      </c>
+      <c r="D53">
+        <v>0.02606693165486812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001291373873294021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008860538401487154</v>
+      </c>
+      <c r="C54">
+        <v>-0.05383180064394564</v>
+      </c>
+      <c r="D54">
+        <v>0.04428599182646237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003007143530960139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009870675271078454</v>
+      </c>
+      <c r="C55">
+        <v>-0.109423859572862</v>
+      </c>
+      <c r="D55">
+        <v>0.03878461551983963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.00344619847251828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0204575595574145</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741897907704712</v>
+      </c>
+      <c r="D56">
+        <v>0.02098328477733934</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00641664789918422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01965068335049212</v>
+      </c>
+      <c r="C58">
+        <v>-0.1104414951445745</v>
+      </c>
+      <c r="D58">
+        <v>0.05882846347713626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.005173525259269812</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01009443529642915</v>
+      </c>
+      <c r="C59">
+        <v>-0.1651961056227178</v>
+      </c>
+      <c r="D59">
+        <v>-0.3276219410444344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00298242029191891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02458845776512829</v>
+      </c>
+      <c r="C60">
+        <v>-0.2226247975507062</v>
+      </c>
+      <c r="D60">
+        <v>0.03552257637581781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01342789053416987</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00159082341645487</v>
+      </c>
+      <c r="C61">
+        <v>-0.09449907877530379</v>
+      </c>
+      <c r="D61">
+        <v>0.05421860833774064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1624953595340083</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453080970251065</v>
+      </c>
+      <c r="C62">
+        <v>-0.09447044172148285</v>
+      </c>
+      <c r="D62">
+        <v>0.03961042796675152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0004173961558733284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006411398664242835</v>
+      </c>
+      <c r="C63">
+        <v>-0.0548718651791149</v>
+      </c>
+      <c r="D63">
+        <v>0.02682419023775155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0003859504885512966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01553018204695237</v>
+      </c>
+      <c r="C64">
+        <v>-0.1052469792767756</v>
+      </c>
+      <c r="D64">
+        <v>0.05775236801605332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003519599072459302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01830881154810109</v>
+      </c>
+      <c r="C65">
+        <v>-0.1243857671567596</v>
+      </c>
+      <c r="D65">
+        <v>0.02567218506709201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006756463343828856</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01336900913966977</v>
+      </c>
+      <c r="C66">
+        <v>-0.159605987144987</v>
+      </c>
+      <c r="D66">
+        <v>0.1115427592401479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003898900897901132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01572768599227584</v>
+      </c>
+      <c r="C67">
+        <v>-0.06503021663799041</v>
+      </c>
+      <c r="D67">
+        <v>0.02665694468285996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.00491795476108401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007812442638214853</v>
+      </c>
+      <c r="C68">
+        <v>-0.08713335611914839</v>
+      </c>
+      <c r="D68">
+        <v>-0.2609206276142696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001798391981588218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006322350764039701</v>
+      </c>
+      <c r="C69">
+        <v>-0.05040865658753299</v>
+      </c>
+      <c r="D69">
+        <v>0.03856532620586885</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002749850643721624</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00182194774042696</v>
+      </c>
+      <c r="C70">
+        <v>-0.002692188627003372</v>
+      </c>
+      <c r="D70">
+        <v>0.0004640716505057009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0009707228195567836</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005894842685641651</v>
+      </c>
+      <c r="C71">
+        <v>-0.09469426662326445</v>
+      </c>
+      <c r="D71">
+        <v>-0.3063205143377814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003211496398607698</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01654109931902</v>
+      </c>
+      <c r="C72">
+        <v>-0.1533654102818587</v>
+      </c>
+      <c r="D72">
+        <v>0.0177138350822521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01023340786903302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03136458601760991</v>
+      </c>
+      <c r="C73">
+        <v>-0.2792562387667448</v>
+      </c>
+      <c r="D73">
+        <v>0.05562331961842557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004519253794623622</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002187091705350435</v>
+      </c>
+      <c r="C74">
+        <v>-0.10452226566594</v>
+      </c>
+      <c r="D74">
+        <v>0.03508592250916601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002003593855153982</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01130095756322757</v>
+      </c>
+      <c r="C75">
+        <v>-0.1245638279374409</v>
+      </c>
+      <c r="D75">
+        <v>0.02712843829662684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009389299721131075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0221372290339537</v>
+      </c>
+      <c r="C76">
+        <v>-0.148580051054686</v>
+      </c>
+      <c r="D76">
+        <v>0.05871996603488293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001834349253818563</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02367039258883212</v>
+      </c>
+      <c r="C77">
+        <v>-0.1211107058642996</v>
+      </c>
+      <c r="D77">
+        <v>0.0822483984810481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0012732099928957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01501606953344592</v>
+      </c>
+      <c r="C78">
+        <v>-0.09599045870075835</v>
+      </c>
+      <c r="D78">
+        <v>0.07316713595932293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02399891458676427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03802814504056812</v>
+      </c>
+      <c r="C79">
+        <v>-0.1567263707551956</v>
+      </c>
+      <c r="D79">
+        <v>0.03300112714924386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006895908368833397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01041863567639925</v>
+      </c>
+      <c r="C80">
+        <v>-0.03937998624795657</v>
+      </c>
+      <c r="D80">
+        <v>0.02874207821859669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001118490436081388</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01561012298460281</v>
+      </c>
+      <c r="C81">
+        <v>-0.1268726687230218</v>
+      </c>
+      <c r="D81">
+        <v>0.04028982884727875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006124698206195549</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02020081091757394</v>
+      </c>
+      <c r="C82">
+        <v>-0.1416723207113163</v>
+      </c>
+      <c r="D82">
+        <v>0.03538750506348399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009019267642136767</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008339382059333</v>
+      </c>
+      <c r="C83">
+        <v>-0.05523859823686428</v>
+      </c>
+      <c r="D83">
+        <v>0.05411227199085949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01368119141025055</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01167318701965299</v>
+      </c>
+      <c r="C84">
+        <v>-0.03639427938803563</v>
+      </c>
+      <c r="D84">
+        <v>-0.006845238405629095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01425988251492146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02858783528909579</v>
+      </c>
+      <c r="C85">
+        <v>-0.1243104387382691</v>
+      </c>
+      <c r="D85">
+        <v>0.04651046657569762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001003522713858258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005906609852187932</v>
+      </c>
+      <c r="C86">
+        <v>-0.04958796345264106</v>
+      </c>
+      <c r="D86">
+        <v>0.02835781849780971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00321745246422911</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01031113432242151</v>
+      </c>
+      <c r="C87">
+        <v>-0.1275096900230868</v>
+      </c>
+      <c r="D87">
+        <v>0.07310875248080613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01128593219835284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00280512126770971</v>
+      </c>
+      <c r="C88">
+        <v>-0.06495879369066691</v>
+      </c>
+      <c r="D88">
+        <v>0.01843059083343828</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01178851364867326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0010070119620406</v>
+      </c>
+      <c r="C89">
+        <v>-0.1472786486283488</v>
+      </c>
+      <c r="D89">
+        <v>-0.3322943565085996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0007106531549672939</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007198724592210219</v>
+      </c>
+      <c r="C90">
+        <v>-0.1211677666524158</v>
+      </c>
+      <c r="D90">
+        <v>-0.3190878574751622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.000934095336071959</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01059838197448001</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003313916612176</v>
+      </c>
+      <c r="D91">
+        <v>0.02074542341831421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00608284261416051</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001277659094660537</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360847288223117</v>
+      </c>
+      <c r="D92">
+        <v>-0.3272125495884596</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001079383306493174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005103686437717767</v>
+      </c>
+      <c r="C93">
+        <v>-0.1053795090091458</v>
+      </c>
+      <c r="D93">
+        <v>-0.3013438658563019</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004343912014833626</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02293445765572602</v>
+      </c>
+      <c r="C94">
+        <v>-0.1468014135675796</v>
+      </c>
+      <c r="D94">
+        <v>0.05568049005129975</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004500713740220532</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01660521410490799</v>
+      </c>
+      <c r="C95">
+        <v>-0.1247912977895266</v>
+      </c>
+      <c r="D95">
+        <v>0.06021167832464761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002076830554457432</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0367922228043684</v>
+      </c>
+      <c r="C97">
+        <v>-0.2135359822340923</v>
+      </c>
+      <c r="D97">
+        <v>-0.005428177722952177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.001727213059656511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03727970673274898</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496032683534228</v>
+      </c>
+      <c r="D98">
+        <v>0.04874659414589977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851026573147469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818820551509586</v>
+      </c>
+      <c r="C99">
+        <v>0.1190140355183819</v>
+      </c>
+      <c r="D99">
+        <v>-0.0269441157982988</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001113886933533837</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003519083223066855</v>
+      </c>
+      <c r="C101">
+        <v>-0.05143567860587472</v>
+      </c>
+      <c r="D101">
+        <v>0.006806690903418188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
